--- a/ig/ch-vacd/CodeSystem-ch-vacd-allergyintolerance-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-allergyintolerance-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
